--- a/result/NightResultA&B.xlsx
+++ b/result/NightResultA&B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="3220" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1840" yWindow="3500" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PVT Night A" sheetId="1" r:id="rId1"/>
@@ -614,11 +614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2120136128"/>
-        <c:axId val="2120138688"/>
+        <c:axId val="2086747392"/>
+        <c:axId val="2086739008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2120136128"/>
+        <c:axId val="2086747392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120138688"/>
+        <c:crossAx val="2086739008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -728,7 +728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120138688"/>
+        <c:axId val="2086739008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -824,7 +824,1433 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120136128"/>
+        <c:crossAx val="2086747392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>STEX3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Streeing Variablity)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> In the Night Shift</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Night A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Driving Night A STEX3'!$B$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="1">
+                    <c:v>0.290574018108984</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.156655545704581</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.289985930693198</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.210433980145793</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.186132748327638</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.239023973693017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.218181804924242</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.193827655405517</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Driving Night A STEX3'!$B$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Driving Night A STEX3'!$B$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>13.3284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.1884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.2552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.6494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.0404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.1746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Night B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="57000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'PVT Night B'!$B$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="1">
+                    <c:v>0.0316859590355097</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0639843730921855</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0885663593019384</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.161511609489845</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0311448230047949</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0344383507154451</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0451663591625448</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.177070607385868</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Driving Night B STEX3'!$B$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="1">
+                    <c:v>0.131206859576777</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.184581580879566</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.205088663753021</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.23138958489958</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.278894137622145</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.313523938479983</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.311577855439054</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.292996143319328</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="51000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Driving Night A STEX3'!$B$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Driving Night B STEX3'!$B$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>13.3242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.3086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.4926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.7942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.1312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.0396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.0454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2086762544"/>
+        <c:axId val="2086757424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2086762544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> within days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086757424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086757424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PVTlapses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086762544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LatDev (Lateral</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Deviation)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> In the Night Shift</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Night A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Driving Night A LatDev'!$B$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="1">
+                    <c:v>0.00111355287256595</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00115758369027908</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00124096736459898</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000547722557505187</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00150332963783737</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000800000000000067</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00164316767251553</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00200997512422416</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Driving Night A LatDev'!$B$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Driving Night A LatDev'!$B$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>7.424200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.424200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.424799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Night B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="57000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="51000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Driving Night A LatDev'!$B$22:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34 h break</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Driving Night B LatDev'!$B$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>7.4256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.423400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.422</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.425800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134913280"/>
+        <c:axId val="2136689248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134913280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time points</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> within days</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136689248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2136689248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PVTlapses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2134913280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -945,6 +2371,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1461,20 +2967,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1488,6 +4026,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1761,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2118,7 +4720,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2472,7 +5074,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2499,16 +5101,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>0.95</v>
+        <v>13.382999999999999</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>13.500999999999999</v>
       </c>
       <c r="D2" s="8">
-        <v>1.51</v>
+        <v>13.042</v>
       </c>
       <c r="E2" s="5">
-        <v>2.96</v>
+        <v>12.846</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2516,16 +5118,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="9">
-        <v>1.01</v>
+        <v>12.259</v>
       </c>
       <c r="C3" s="9">
-        <v>1.02</v>
+        <v>12.587999999999999</v>
       </c>
       <c r="D3" s="9">
-        <v>1.25</v>
+        <v>12.250999999999999</v>
       </c>
       <c r="E3" s="6">
-        <v>1.93</v>
+        <v>13.667</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2533,16 +5135,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="9">
-        <v>0.72</v>
+        <v>13.9</v>
       </c>
       <c r="C4" s="9">
-        <v>1.18</v>
+        <v>13.287000000000001</v>
       </c>
       <c r="D4" s="9">
-        <v>1.1599999999999999</v>
+        <v>13.879</v>
       </c>
       <c r="E4" s="6">
-        <v>1.84</v>
+        <v>14.021000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2550,16 +5152,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>0.85</v>
+        <v>13.792</v>
       </c>
       <c r="C5" s="9">
-        <v>0.79</v>
+        <v>13.333</v>
       </c>
       <c r="D5" s="9">
-        <v>1.4</v>
+        <v>13.728999999999999</v>
       </c>
       <c r="E5" s="6">
-        <v>1.68</v>
+        <v>13.946</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,16 +5169,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>0.88</v>
+        <v>13.308</v>
       </c>
       <c r="C6" s="9">
-        <v>0.96</v>
+        <v>13.233000000000001</v>
       </c>
       <c r="D6" s="9">
-        <v>1.18</v>
+        <v>13.375</v>
       </c>
       <c r="E6" s="6">
-        <v>1.9</v>
+        <v>13.766999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2593,16 +5195,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>0.81</v>
+        <v>13.532999999999999</v>
       </c>
       <c r="C8" s="9">
-        <v>0.93</v>
+        <v>13.454000000000001</v>
       </c>
       <c r="D8" s="9">
-        <v>1.1200000000000001</v>
+        <v>13.882999999999999</v>
       </c>
       <c r="E8" s="6">
-        <v>2.04</v>
+        <v>13.842000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2610,16 +5212,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>0.71</v>
+        <v>13.333</v>
       </c>
       <c r="C9" s="9">
-        <v>0.69</v>
+        <v>13.75</v>
       </c>
       <c r="D9" s="9">
-        <v>1.1100000000000001</v>
+        <v>13.15</v>
       </c>
       <c r="E9" s="6">
-        <v>1.64</v>
+        <v>13.092000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2627,16 +5229,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>0.8</v>
+        <v>12.68</v>
       </c>
       <c r="C10" s="9">
-        <v>0.74</v>
+        <v>12.755000000000001</v>
       </c>
       <c r="D10" s="9">
-        <v>1.1000000000000001</v>
+        <v>12.505000000000001</v>
       </c>
       <c r="E10" s="6">
-        <v>1.53</v>
+        <v>12.896000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2644,16 +5246,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="9">
-        <v>0.68</v>
+        <v>13.313000000000001</v>
       </c>
       <c r="C11" s="9">
-        <v>0.8</v>
+        <v>12.488</v>
       </c>
       <c r="D11" s="9">
-        <v>0.97</v>
+        <v>13.196</v>
       </c>
       <c r="E11" s="6">
-        <v>1.81</v>
+        <v>12.726000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,16 +5263,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <v>0.69</v>
+        <v>12.621</v>
       </c>
       <c r="C12" s="10">
-        <v>0.94</v>
+        <v>12.755000000000001</v>
       </c>
       <c r="D12" s="10">
-        <v>1.04</v>
+        <v>13.146000000000001</v>
       </c>
       <c r="E12" s="7">
-        <v>1.72</v>
+        <v>13.317</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -2708,35 +5310,35 @@
       </c>
       <c r="C23">
         <f>AVERAGE(B2:B6)</f>
-        <v>0.88200000000000001</v>
+        <v>13.328399999999998</v>
       </c>
       <c r="D23">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.99</v>
+        <v>13.188399999999998</v>
       </c>
       <c r="E23">
         <f>AVERAGE(D2:D6)</f>
-        <v>1.3</v>
+        <v>13.255199999999999</v>
       </c>
       <c r="F23">
         <f>AVERAGE(E2:E6)</f>
-        <v>2.0620000000000003</v>
+        <v>13.6494</v>
       </c>
       <c r="H23">
         <f>AVERAGE(B8:B12)</f>
-        <v>0.7380000000000001</v>
+        <v>13.096</v>
       </c>
       <c r="I23">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.82</v>
+        <v>13.0404</v>
       </c>
       <c r="J23">
         <f>AVERAGE(D8:D12)</f>
-        <v>1.0680000000000001</v>
+        <v>13.175999999999998</v>
       </c>
       <c r="K23">
         <f>AVERAGE(E8:E12)</f>
-        <v>1.748</v>
+        <v>13.174599999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -2745,35 +5347,35 @@
       </c>
       <c r="C24">
         <f>STDEV(B2:B6)</f>
-        <v>0.10986355173577826</v>
+        <v>0.64974325698694235</v>
       </c>
       <c r="D24">
         <f>STDEV(C2:C6)</f>
-        <v>0.13964240043768888</v>
+        <v>0.35029244924776815</v>
       </c>
       <c r="E24">
         <f>STDEV(D2:D6)</f>
-        <v>0.15049916943292432</v>
+        <v>0.64842825354853262</v>
       </c>
       <c r="F24">
         <f>STDEV(E2:E6)</f>
-        <v>0.51119467915853611</v>
+        <v>0.47054468438183433</v>
       </c>
       <c r="H24">
         <f>STDEV(B8:B12)</f>
-        <v>6.2209324059983195E-2</v>
+        <v>0.41620547809945985</v>
       </c>
       <c r="I24">
         <f>STDEV(C8:C12)</f>
-        <v>0.11202678251204067</v>
+        <v>0.5344738534297071</v>
       </c>
       <c r="J24">
         <f>STDEV(D8:D12)</f>
-        <v>6.3007936008093512E-2</v>
+        <v>0.48786934726420289</v>
       </c>
       <c r="K24">
         <f>STDEV(E8:E12)</f>
-        <v>0.19305439647933431</v>
+        <v>0.43341181340614132</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -2782,35 +5384,35 @@
       </c>
       <c r="C25">
         <f>(C24/SQRT(COUNT(B2:B6)))</f>
-        <v>4.9132473986153037E-2</v>
+        <v>0.29057401810898364</v>
       </c>
       <c r="D25">
         <f>(D24/SQRT(COUNT(C2:C6)))</f>
-        <v>6.2449979983983744E-2</v>
+        <v>0.15665554570458093</v>
       </c>
       <c r="E25">
         <f>(E24/SQRT(COUNT(D2:D6)))</f>
-        <v>6.7305274681855445E-2</v>
+        <v>0.28998593069319761</v>
       </c>
       <c r="F25">
         <f>(F24/SQRT(COUNT(E2:E6)))</f>
-        <v>0.22861321046693633</v>
+        <v>0.21043398014579304</v>
       </c>
       <c r="H25">
         <f>(H24/SQRT(COUNT(B8:B12)))</f>
-        <v>2.7820855486487123E-2</v>
+        <v>0.18613274832763843</v>
       </c>
       <c r="I25">
         <f>(I24/SQRT(COUNT(C8:C12)))</f>
-        <v>5.0099900199501515E-2</v>
+        <v>0.23902397369301684</v>
       </c>
       <c r="J25">
         <f>(J24/SQRT(COUNT(D8:D12)))</f>
-        <v>2.8178005607210767E-2</v>
+        <v>0.21818180492424175</v>
       </c>
       <c r="K25">
         <f>(K24/SQRT(COUNT(E8:E12)))</f>
-        <v>8.633655077659752E-2</v>
+        <v>0.19382765540551733</v>
       </c>
     </row>
   </sheetData>
@@ -2822,8 +5424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2850,16 +5452,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>0.95</v>
+        <v>13.62</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>13.488</v>
       </c>
       <c r="D2" s="8">
-        <v>1.51</v>
+        <v>13.013</v>
       </c>
       <c r="E2" s="5">
-        <v>2.96</v>
+        <v>13.026</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2867,16 +5469,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="9">
-        <v>1.01</v>
+        <v>12.875999999999999</v>
       </c>
       <c r="C3" s="9">
-        <v>1.02</v>
+        <v>12.592000000000001</v>
       </c>
       <c r="D3" s="9">
-        <v>1.25</v>
+        <v>12.996</v>
       </c>
       <c r="E3" s="6">
-        <v>1.93</v>
+        <v>14.404</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2884,16 +5486,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="9">
-        <v>0.72</v>
+        <v>13.254</v>
       </c>
       <c r="C4" s="9">
-        <v>1.18</v>
+        <v>13.454000000000001</v>
       </c>
       <c r="D4" s="9">
-        <v>1.1599999999999999</v>
+        <v>13.95</v>
       </c>
       <c r="E4" s="6">
-        <v>1.84</v>
+        <v>13.821</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,16 +5503,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>0.85</v>
+        <v>13.321</v>
       </c>
       <c r="C5" s="9">
-        <v>0.79</v>
+        <v>13.367000000000001</v>
       </c>
       <c r="D5" s="9">
-        <v>1.4</v>
+        <v>13.853999999999999</v>
       </c>
       <c r="E5" s="6">
-        <v>1.68</v>
+        <v>13.637</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2918,16 +5520,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>0.88</v>
+        <v>13.55</v>
       </c>
       <c r="C6" s="9">
-        <v>0.96</v>
+        <v>13.641999999999999</v>
       </c>
       <c r="D6" s="9">
-        <v>1.18</v>
+        <v>13.65</v>
       </c>
       <c r="E6" s="6">
-        <v>1.9</v>
+        <v>14.083</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2944,16 +5546,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>0.81</v>
+        <v>13.554</v>
       </c>
       <c r="C8" s="9">
-        <v>0.93</v>
+        <v>13.75</v>
       </c>
       <c r="D8" s="9">
-        <v>1.1200000000000001</v>
+        <v>13.704000000000001</v>
       </c>
       <c r="E8" s="6">
-        <v>2.04</v>
+        <v>14.324999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2961,16 +5563,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>0.71</v>
+        <v>14.012</v>
       </c>
       <c r="C9" s="9">
-        <v>0.69</v>
+        <v>13.853999999999999</v>
       </c>
       <c r="D9" s="9">
-        <v>1.1100000000000001</v>
+        <v>13.792</v>
       </c>
       <c r="E9" s="6">
-        <v>1.64</v>
+        <v>12.984</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2978,16 +5580,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>0.8</v>
+        <v>12.701000000000001</v>
       </c>
       <c r="C10" s="9">
-        <v>0.74</v>
+        <v>12.476000000000001</v>
       </c>
       <c r="D10" s="9">
-        <v>1.1000000000000001</v>
+        <v>12.170999999999999</v>
       </c>
       <c r="E10" s="6">
-        <v>1.53</v>
+        <v>13.196</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2995,16 +5597,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="9">
-        <v>0.68</v>
+        <v>12.826000000000001</v>
       </c>
       <c r="C11" s="9">
-        <v>0.8</v>
+        <v>12.462999999999999</v>
       </c>
       <c r="D11" s="9">
-        <v>0.97</v>
+        <v>12.63</v>
       </c>
       <c r="E11" s="6">
-        <v>1.81</v>
+        <v>12.734</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3012,16 +5614,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <v>0.69</v>
+        <v>12.563000000000001</v>
       </c>
       <c r="C12" s="10">
-        <v>0.94</v>
+        <v>12.654999999999999</v>
       </c>
       <c r="D12" s="10">
-        <v>1.04</v>
+        <v>12.93</v>
       </c>
       <c r="E12" s="7">
-        <v>1.72</v>
+        <v>12.766999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3059,35 +5661,35 @@
       </c>
       <c r="C23">
         <f>AVERAGE(B2:B6)</f>
-        <v>0.88200000000000001</v>
+        <v>13.324199999999999</v>
       </c>
       <c r="D23">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.99</v>
+        <v>13.308599999999998</v>
       </c>
       <c r="E23">
         <f>AVERAGE(D2:D6)</f>
-        <v>1.3</v>
+        <v>13.492600000000001</v>
       </c>
       <c r="F23">
         <f>AVERAGE(E2:E6)</f>
-        <v>2.0620000000000003</v>
+        <v>13.7942</v>
       </c>
       <c r="H23">
         <f>AVERAGE(B8:B12)</f>
-        <v>0.7380000000000001</v>
+        <v>13.131200000000002</v>
       </c>
       <c r="I23">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.82</v>
+        <v>13.039599999999998</v>
       </c>
       <c r="J23">
         <f>AVERAGE(D8:D12)</f>
-        <v>1.0680000000000001</v>
+        <v>13.045400000000001</v>
       </c>
       <c r="K23">
         <f>AVERAGE(E8:E12)</f>
-        <v>1.748</v>
+        <v>13.2012</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3096,35 +5698,35 @@
       </c>
       <c r="C24">
         <f>STDEV(B2:B6)</f>
-        <v>0.10986355173577826</v>
+        <v>0.29338745712794218</v>
       </c>
       <c r="D24">
         <f>STDEV(C2:C6)</f>
-        <v>0.13964240043768888</v>
+        <v>0.41273696224108614</v>
       </c>
       <c r="E24">
         <f>STDEV(D2:D6)</f>
-        <v>0.15049916943292432</v>
+        <v>0.45859219356635328</v>
       </c>
       <c r="F24">
         <f>STDEV(E2:E6)</f>
-        <v>0.51119467915853611</v>
+        <v>0.51740284112092005</v>
       </c>
       <c r="H24">
         <f>STDEV(B8:B12)</f>
-        <v>6.2209324059983195E-2</v>
+        <v>0.62362625024929785</v>
       </c>
       <c r="I24">
         <f>STDEV(C8:C12)</f>
-        <v>0.11202678251204067</v>
+        <v>0.70106083901470329</v>
       </c>
       <c r="J24">
         <f>STDEV(D8:D12)</f>
-        <v>6.3007936008093512E-2</v>
+        <v>0.69670926504532737</v>
       </c>
       <c r="K24">
         <f>STDEV(E8:E12)</f>
-        <v>0.19305439647933431</v>
+        <v>0.65515929360728731</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3133,35 +5735,35 @@
       </c>
       <c r="C25">
         <f>(C24/SQRT(COUNT(B2:B6)))</f>
-        <v>4.9132473986153037E-2</v>
+        <v>0.13120685957677677</v>
       </c>
       <c r="D25">
         <f>(D24/SQRT(COUNT(C2:C6)))</f>
-        <v>6.2449979983983744E-2</v>
+        <v>0.1845815808795665</v>
       </c>
       <c r="E25">
         <f>(E24/SQRT(COUNT(D2:D6)))</f>
-        <v>6.7305274681855445E-2</v>
+        <v>0.20508866375302151</v>
       </c>
       <c r="F25">
         <f>(F24/SQRT(COUNT(E2:E6)))</f>
-        <v>0.22861321046693633</v>
+        <v>0.23138958489958014</v>
       </c>
       <c r="H25">
         <f>(H24/SQRT(COUNT(B8:B12)))</f>
-        <v>2.7820855486487123E-2</v>
+        <v>0.27889413762214504</v>
       </c>
       <c r="I25">
         <f>(I24/SQRT(COUNT(C8:C12)))</f>
-        <v>5.0099900199501515E-2</v>
+        <v>0.31352393847998261</v>
       </c>
       <c r="J25">
         <f>(J24/SQRT(COUNT(D8:D12)))</f>
-        <v>2.8178005607210767E-2</v>
+        <v>0.31157785543905403</v>
       </c>
       <c r="K25">
         <f>(K24/SQRT(COUNT(E8:E12)))</f>
-        <v>8.633655077659752E-2</v>
+        <v>0.29299614331932755</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +5776,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3201,16 +5803,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>0.95</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="D2" s="8">
-        <v>1.51</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="E2" s="5">
-        <v>2.96</v>
+        <v>7.4240000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3218,16 +5820,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="9">
-        <v>1.01</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="C3" s="9">
-        <v>1.02</v>
+        <v>7.4290000000000003</v>
       </c>
       <c r="D3" s="9">
-        <v>1.25</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="E3" s="6">
-        <v>1.93</v>
+        <v>7.4219999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3235,16 +5837,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="9">
-        <v>0.72</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="C4" s="9">
-        <v>1.18</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="D4" s="9">
-        <v>1.1599999999999999</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="E4" s="6">
-        <v>1.84</v>
+        <v>7.4240000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3252,16 +5854,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>0.85</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="C5" s="9">
-        <v>0.79</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="D5" s="9">
-        <v>1.4</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="E5" s="6">
-        <v>1.68</v>
+        <v>7.4249999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3269,16 +5871,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>0.88</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="C6" s="9">
-        <v>0.96</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="D6" s="9">
-        <v>1.18</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="E6" s="6">
-        <v>1.9</v>
+        <v>7.4249999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3295,16 +5897,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>0.81</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="C8" s="9">
-        <v>0.93</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="D8" s="9">
-        <v>1.1200000000000001</v>
+        <v>7.423</v>
       </c>
       <c r="E8" s="6">
-        <v>2.04</v>
+        <v>7.4169999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3312,16 +5914,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>0.71</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="C9" s="9">
-        <v>0.69</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="D9" s="9">
-        <v>1.1100000000000001</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="E9" s="6">
-        <v>1.64</v>
+        <v>7.4269999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3329,16 +5931,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>0.8</v>
+        <v>7.4290000000000003</v>
       </c>
       <c r="C10" s="9">
-        <v>0.74</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="D10" s="9">
-        <v>1.1000000000000001</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="E10" s="6">
-        <v>1.53</v>
+        <v>7.4249999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3346,16 +5948,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="9">
-        <v>0.68</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="C11" s="9">
-        <v>0.8</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="D11" s="9">
-        <v>0.97</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="E11" s="6">
-        <v>1.81</v>
+        <v>7.4279999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3363,16 +5965,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <v>0.69</v>
+        <v>7.431</v>
       </c>
       <c r="C12" s="10">
-        <v>0.94</v>
+        <v>7.4290000000000003</v>
       </c>
       <c r="D12" s="10">
-        <v>1.04</v>
+        <v>7.431</v>
       </c>
       <c r="E12" s="7">
-        <v>1.72</v>
+        <v>7.4269999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3410,35 +6012,35 @@
       </c>
       <c r="C23">
         <f>AVERAGE(B2:B6)</f>
-        <v>0.88200000000000001</v>
+        <v>7.4242000000000008</v>
       </c>
       <c r="D23">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.99</v>
+        <v>7.4248000000000003</v>
       </c>
       <c r="E23">
         <f>AVERAGE(D2:D6)</f>
-        <v>1.3</v>
+        <v>7.4242000000000008</v>
       </c>
       <c r="F23">
         <f>AVERAGE(E2:E6)</f>
-        <v>2.0620000000000003</v>
+        <v>7.4239999999999995</v>
       </c>
       <c r="H23">
         <f>AVERAGE(B8:B12)</f>
-        <v>0.7380000000000001</v>
+        <v>7.4274000000000004</v>
       </c>
       <c r="I23">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.82</v>
+        <v>7.4268000000000001</v>
       </c>
       <c r="J23">
         <f>AVERAGE(D8:D12)</f>
-        <v>1.0680000000000001</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="K23">
         <f>AVERAGE(E8:E12)</f>
-        <v>1.748</v>
+        <v>7.4247999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3447,35 +6049,35 @@
       </c>
       <c r="C24">
         <f>STDEV(B2:B6)</f>
-        <v>0.10986355173577826</v>
+        <v>2.4899799195976149E-3</v>
       </c>
       <c r="D24">
         <f>STDEV(C2:C6)</f>
-        <v>0.13964240043768888</v>
+        <v>2.5884358211090835E-3</v>
       </c>
       <c r="E24">
         <f>STDEV(D2:D6)</f>
-        <v>0.15049916943292432</v>
+        <v>2.7748873851020958E-3</v>
       </c>
       <c r="F24">
         <f>STDEV(E2:E6)</f>
-        <v>0.51119467915853611</v>
+        <v>1.2247448713916355E-3</v>
       </c>
       <c r="H24">
         <f>STDEV(B8:B12)</f>
-        <v>6.2209324059983195E-2</v>
+        <v>3.3615472627944935E-3</v>
       </c>
       <c r="I24">
         <f>STDEV(C8:C12)</f>
-        <v>0.11202678251204067</v>
+        <v>1.7888543819999823E-3</v>
       </c>
       <c r="J24">
         <f>STDEV(D8:D12)</f>
-        <v>6.3007936008093512E-2</v>
+        <v>3.6742346141748457E-3</v>
       </c>
       <c r="K24">
         <f>STDEV(E8:E12)</f>
-        <v>0.19305439647933431</v>
+        <v>4.4944410108488158E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3484,35 +6086,35 @@
       </c>
       <c r="C25">
         <f>(C24/SQRT(COUNT(B2:B6)))</f>
-        <v>4.9132473986153037E-2</v>
+        <v>1.1135528725659456E-3</v>
       </c>
       <c r="D25">
         <f>(D24/SQRT(COUNT(C2:C6)))</f>
-        <v>6.2449979983983744E-2</v>
+        <v>1.1575836902790791E-3</v>
       </c>
       <c r="E25">
         <f>(E24/SQRT(COUNT(D2:D6)))</f>
-        <v>6.7305274681855445E-2</v>
+        <v>1.2409673645989846E-3</v>
       </c>
       <c r="F25">
         <f>(F24/SQRT(COUNT(E2:E6)))</f>
-        <v>0.22861321046693633</v>
+        <v>5.4772255750518692E-4</v>
       </c>
       <c r="H25">
         <f>(H24/SQRT(COUNT(B8:B12)))</f>
-        <v>2.7820855486487123E-2</v>
+        <v>1.5033296378373674E-3</v>
       </c>
       <c r="I25">
         <f>(I24/SQRT(COUNT(C8:C12)))</f>
-        <v>5.0099900199501515E-2</v>
+        <v>8.0000000000006726E-4</v>
       </c>
       <c r="J25">
         <f>(J24/SQRT(COUNT(D8:D12)))</f>
-        <v>2.8178005607210767E-2</v>
+        <v>1.6431676725155333E-3</v>
       </c>
       <c r="K25">
         <f>(K24/SQRT(COUNT(E8:E12)))</f>
-        <v>8.633655077659752E-2</v>
+        <v>2.0099751242241642E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +6127,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3552,16 +6154,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <v>0.95</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="D2" s="8">
-        <v>1.51</v>
+        <v>7.431</v>
       </c>
       <c r="E2" s="5">
-        <v>2.96</v>
+        <v>7.4249999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3569,16 +6171,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="9">
-        <v>1.01</v>
+        <v>7.4290000000000003</v>
       </c>
       <c r="C3" s="9">
-        <v>1.02</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="D3" s="9">
-        <v>1.25</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="E3" s="6">
-        <v>1.93</v>
+        <v>7.4219999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3586,16 +6188,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="9">
-        <v>0.72</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="C4" s="9">
-        <v>1.18</v>
+        <v>7.423</v>
       </c>
       <c r="D4" s="9">
-        <v>1.1599999999999999</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="E4" s="6">
-        <v>1.84</v>
+        <v>7.4189999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3603,16 +6205,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="9">
-        <v>0.85</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="C5" s="9">
-        <v>0.79</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="D5" s="9">
-        <v>1.4</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="E5" s="6">
-        <v>1.68</v>
+        <v>7.4240000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3620,16 +6222,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>0.88</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="C6" s="9">
-        <v>0.96</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="D6" s="9">
-        <v>1.18</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="E6" s="6">
-        <v>1.9</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3646,16 +6248,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <v>0.81</v>
+        <v>7.423</v>
       </c>
       <c r="C8" s="9">
-        <v>0.93</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="D8" s="9">
-        <v>1.1200000000000001</v>
+        <v>7.423</v>
       </c>
       <c r="E8" s="6">
-        <v>2.04</v>
+        <v>7.423</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3663,16 +6265,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>0.71</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="C9" s="9">
-        <v>0.69</v>
+        <v>7.4240000000000004</v>
       </c>
       <c r="D9" s="9">
-        <v>1.1100000000000001</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="E9" s="6">
-        <v>1.64</v>
+        <v>7.4269999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3680,16 +6282,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="9">
-        <v>0.8</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="C10" s="9">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="D10" s="9">
-        <v>1.1000000000000001</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="E10" s="6">
-        <v>1.53</v>
+        <v>7.4279999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3697,16 +6299,16 @@
         <v>12</v>
       </c>
       <c r="B11" s="9">
-        <v>0.68</v>
+        <v>7.4269999999999996</v>
       </c>
       <c r="C11" s="9">
-        <v>0.8</v>
+        <v>7.431</v>
       </c>
       <c r="D11" s="9">
-        <v>0.97</v>
+        <v>7.4290000000000003</v>
       </c>
       <c r="E11" s="6">
-        <v>1.81</v>
+        <v>7.4260000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3714,16 +6316,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="10">
-        <v>0.69</v>
+        <v>7.43</v>
       </c>
       <c r="C12" s="10">
-        <v>0.94</v>
+        <v>7.4249999999999998</v>
       </c>
       <c r="D12" s="10">
-        <v>1.04</v>
+        <v>7.4290000000000003</v>
       </c>
       <c r="E12" s="7">
-        <v>1.72</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3761,35 +6363,35 @@
       </c>
       <c r="C23">
         <f>AVERAGE(B2:B6)</f>
-        <v>0.88200000000000001</v>
+        <v>7.4256000000000002</v>
       </c>
       <c r="D23">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.99</v>
+        <v>7.4234000000000009</v>
       </c>
       <c r="E23">
         <f>AVERAGE(D2:D6)</f>
-        <v>1.3</v>
+        <v>7.4268000000000001</v>
       </c>
       <c r="F23">
         <f>AVERAGE(E2:E6)</f>
-        <v>2.0620000000000003</v>
+        <v>7.4219999999999997</v>
       </c>
       <c r="H23">
         <f>AVERAGE(B8:B12)</f>
-        <v>0.7380000000000001</v>
+        <v>7.4263999999999992</v>
       </c>
       <c r="I23">
         <f>AVERAGE(C8:C12)</f>
-        <v>0.82</v>
+        <v>7.4263999999999992</v>
       </c>
       <c r="J23">
         <f>AVERAGE(D8:D12)</f>
-        <v>1.0680000000000001</v>
+        <v>7.4258000000000006</v>
       </c>
       <c r="K23">
         <f>AVERAGE(E8:E12)</f>
-        <v>1.748</v>
+        <v>7.4268000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3798,35 +6400,35 @@
       </c>
       <c r="C24">
         <f>STDEV(B2:B6)</f>
-        <v>0.10986355173577826</v>
+        <v>2.6076809620812153E-3</v>
       </c>
       <c r="D24">
         <f>STDEV(C2:C6)</f>
-        <v>0.13964240043768888</v>
+        <v>2.0736441353327579E-3</v>
       </c>
       <c r="E24">
         <f>STDEV(D2:D6)</f>
-        <v>0.15049916943292432</v>
+        <v>2.7748873851022558E-3</v>
       </c>
       <c r="F24">
         <f>STDEV(E2:E6)</f>
-        <v>0.51119467915853611</v>
+        <v>2.549509756796547E-3</v>
       </c>
       <c r="H24">
         <f>STDEV(B8:B12)</f>
-        <v>6.2209324059983195E-2</v>
+        <v>2.6076809620809256E-3</v>
       </c>
       <c r="I24">
         <f>STDEV(C8:C12)</f>
-        <v>0.11202678251204067</v>
+        <v>3.9115214431215788E-3</v>
       </c>
       <c r="J24">
         <f>STDEV(D8:D12)</f>
-        <v>6.3007936008093512E-2</v>
+        <v>3.6331804249169811E-3</v>
       </c>
       <c r="K24">
         <f>STDEV(E8:E12)</f>
-        <v>0.19305439647933431</v>
+        <v>2.5884358211088259E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3835,35 +6437,35 @@
       </c>
       <c r="C25">
         <f>(C24/SQRT(COUNT(B2:B6)))</f>
-        <v>4.9132473986153037E-2</v>
+        <v>1.1661903789691296E-3</v>
       </c>
       <c r="D25">
         <f>(D24/SQRT(COUNT(C2:C6)))</f>
-        <v>6.2449979983983744E-2</v>
+        <v>9.2736184954956397E-4</v>
       </c>
       <c r="E25">
         <f>(E24/SQRT(COUNT(D2:D6)))</f>
-        <v>6.7305274681855445E-2</v>
+        <v>1.2409673645990562E-3</v>
       </c>
       <c r="F25">
         <f>(F24/SQRT(COUNT(E2:E6)))</f>
-        <v>0.22861321046693633</v>
+        <v>1.1401754250992071E-3</v>
       </c>
       <c r="H25">
         <f>(H24/SQRT(COUNT(B8:B12)))</f>
-        <v>2.7820855486487123E-2</v>
+        <v>1.1661903789690002E-3</v>
       </c>
       <c r="I25">
         <f>(I24/SQRT(COUNT(C8:C12)))</f>
-        <v>5.0099900199501515E-2</v>
+        <v>1.7492855684535854E-3</v>
       </c>
       <c r="J25">
         <f>(J24/SQRT(COUNT(D8:D12)))</f>
-        <v>2.8178005607210767E-2</v>
+        <v>1.6248076809271879E-3</v>
       </c>
       <c r="K25">
         <f>(K24/SQRT(COUNT(E8:E12)))</f>
-        <v>8.633655077659752E-2</v>
+        <v>1.157583690278964E-3</v>
       </c>
     </row>
   </sheetData>

--- a/result/NightResultA&B.xlsx
+++ b/result/NightResultA&B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="3500" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="3260" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PVT Night A" sheetId="1" r:id="rId1"/>
@@ -614,11 +614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086747392"/>
-        <c:axId val="2086739008"/>
+        <c:axId val="2103304336"/>
+        <c:axId val="2102510928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086747392"/>
+        <c:axId val="2103304336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086739008"/>
+        <c:crossAx val="2102510928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -728,7 +728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086739008"/>
+        <c:axId val="2102510928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -824,7 +824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086747392"/>
+        <c:crossAx val="2103304336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1195,39 +1195,6 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'PVT Night B'!$B$25:$L$25</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="1">
-                    <c:v>0.0316859590355097</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0639843730921855</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0885663593019384</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.161511609489845</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.0311448230047949</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.0344383507154451</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.0451663591625448</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.177070607385868</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
                 <c:f>'Driving Night B STEX3'!$B$25:$L$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
@@ -1258,6 +1225,15 @@
                   </c:pt>
                 </c:numCache>
               </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numLit>
             </c:minus>
             <c:spPr>
               <a:noFill/>
@@ -1352,11 +1328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2086762544"/>
-        <c:axId val="2086757424"/>
+        <c:axId val="2146955744"/>
+        <c:axId val="2140212944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2086762544"/>
+        <c:axId val="2146955744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086757424"/>
+        <c:crossAx val="2140212944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1466,7 +1442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086757424"/>
+        <c:axId val="2140212944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1493,7 +1469,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>PVTlapses</a:t>
+                  <a:t>STEX3</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1561,7 +1537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086762544"/>
+        <c:crossAx val="2146955744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1931,20 +1907,44 @@
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numLit>
+              <c:numRef>
+                <c:f>'Driving Night B LatDev'!$B$25:$L$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="1">
+                    <c:v>0.00116619037896913</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000927361849549564</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00124096736459906</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00114017542509921</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.001166190378969</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00174928556845358</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00162480768092719</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00115758369027896</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
             </c:plus>
             <c:minus>
               <c:numLit>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2041,11 +2041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2134913280"/>
-        <c:axId val="2136689248"/>
+        <c:axId val="2142041792"/>
+        <c:axId val="2138192832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2134913280"/>
+        <c:axId val="2142041792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,7 +2146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136689248"/>
+        <c:crossAx val="2138192832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136689248"/>
+        <c:axId val="2138192832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2182,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>PVTlapses</a:t>
+                  <a:t>LatDev</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2250,7 +2250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134913280"/>
+        <c:crossAx val="2142041792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4364,7 +4364,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
